--- a/outputs/test-p__Actinobacteriota.xlsx
+++ b/outputs/test-p__Actinobacteriota.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/MLDSP-desktop/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F9B49C-F557-7446-9FB4-38F4DA2B80FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="linear-svm-score" sheetId="2" r:id="rId3"/>
-    <sheet name="quadratic-svm-score" sheetId="3" r:id="rId5"/>
+    <sheet name="linear-svm-score" sheetId="2" r:id="rId1"/>
+    <sheet name="p__quadratic-svm-score" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>Row</t>
   </si>
@@ -102,16 +108,33 @@
   </si>
   <si>
     <t>prediction</t>
+  </si>
+  <si>
+    <t>c__Coriobacteriia</t>
+  </si>
+  <si>
+    <t>c__Actnomycetia</t>
+  </si>
+  <si>
+    <t>c__Thermoleophilia</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,41 +153,357 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="18.42578125" customWidth="true"/>
-    <col min="3" max="3" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" width="18.140625" customWidth="true"/>
-    <col min="5" max="5" width="20.42578125" customWidth="true"/>
-    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -184,12 +523,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3897152643518666e-05</v>
+        <v>2.3897152643518666E-5</v>
       </c>
       <c r="C2">
         <v>0.10083911547850194</v>
@@ -198,38 +537,38 @@
         <v>0.89512546416994465</v>
       </c>
       <c r="E2">
-        <v>0.0040115231989099002</v>
+        <v>4.0115231989099002E-3</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3699867085265619e-05</v>
+        <v>2.3699867085265619E-5</v>
       </c>
       <c r="C3">
-        <v>0.032466472816688796</v>
+        <v>3.2466472816688796E-2</v>
       </c>
       <c r="D3">
         <v>0.96710489235605046</v>
       </c>
       <c r="E3">
-        <v>0.00040493496017546314</v>
+        <v>4.0493496017546314E-4</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00015363962738175065</v>
+        <v>1.5363962738175065E-4</v>
       </c>
       <c r="C4">
         <v>0.38240155672492138</v>
@@ -238,38 +577,38 @@
         <v>0.61728743638011774</v>
       </c>
       <c r="E4">
-        <v>0.00015736726757902705</v>
+        <v>1.5736726757902705E-4</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.065675250609460084</v>
+        <v>6.5675250609460084E-2</v>
       </c>
       <c r="C5">
-        <v>0.0017155992009446363</v>
+        <v>1.7155992009446363E-3</v>
       </c>
       <c r="D5">
         <v>0.93078703896243187</v>
       </c>
       <c r="E5">
-        <v>0.0018221112271633684</v>
+        <v>1.8221112271633684E-3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.324129597161623e-05</v>
+        <v>2.324129597161623E-5</v>
       </c>
       <c r="C6">
         <v>0.12111470548426681</v>
@@ -278,78 +617,78 @@
         <v>0.87790847339076183</v>
       </c>
       <c r="E6">
-        <v>0.00095357982899962456</v>
+        <v>9.5357982899962456E-4</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0012138688423738587</v>
+        <v>1.2138688423738587E-3</v>
       </c>
       <c r="C7">
-        <v>0.037515539136675276</v>
+        <v>3.7515539136675276E-2</v>
       </c>
       <c r="D7">
         <v>0.96116440921695923</v>
       </c>
       <c r="E7">
-        <v>0.00010618280399172741</v>
+        <v>1.0618280399172741E-4</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.00063763060486045429</v>
+        <v>6.3763060486045429E-4</v>
       </c>
       <c r="C8">
-        <v>0.080355852762198823</v>
+        <v>8.0355852762198823E-2</v>
       </c>
       <c r="D8">
         <v>0.91831139950826413</v>
       </c>
       <c r="E8">
-        <v>0.00069511712467658707</v>
+        <v>6.9511712467658707E-4</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0004879142981081233</v>
+        <v>4.879142981081233E-4</v>
       </c>
       <c r="C9">
-        <v>0.04178476024053706</v>
+        <v>4.178476024053706E-2</v>
       </c>
       <c r="D9">
         <v>0.95717775387504533</v>
       </c>
       <c r="E9">
-        <v>0.00054957158630938776</v>
+        <v>5.4957158630938776E-4</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.00025522777061222254</v>
+        <v>2.5522777061222254E-4</v>
       </c>
       <c r="C10">
         <v>0.69513671121400389</v>
@@ -358,198 +697,198 @@
         <v>0.29297449948299897</v>
       </c>
       <c r="E10">
-        <v>0.01163356153238475</v>
+        <v>1.163356153238475E-2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.4944122439658533e-05</v>
+        <v>3.4944122439658533E-5</v>
       </c>
       <c r="C11">
         <v>0.9732901252037065</v>
       </c>
       <c r="D11">
-        <v>0.026639674123450103</v>
+        <v>2.6639674123450103E-2</v>
       </c>
       <c r="E11">
-        <v>3.5256550403639796e-05</v>
+        <v>3.5256550403639796E-5</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0013169272486566418</v>
+        <v>1.3169272486566418E-3</v>
       </c>
       <c r="C12">
-        <v>0.071271583786468876</v>
+        <v>7.1271583786468876E-2</v>
       </c>
       <c r="D12">
         <v>0.9273808139220715</v>
       </c>
       <c r="E12">
-        <v>3.0675042802907398e-05</v>
+        <v>3.0675042802907398E-5</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.071406565567317573</v>
+        <v>7.1406565567317573E-2</v>
       </c>
       <c r="C13">
-        <v>0.0019177749345202656</v>
+        <v>1.9177749345202656E-3</v>
       </c>
       <c r="D13">
         <v>0.924876953316772</v>
       </c>
       <c r="E13">
-        <v>0.0017987061813900848</v>
+        <v>1.7987061813900848E-3</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.8646627271528038e-05</v>
+        <v>1.8646627271528038E-5</v>
       </c>
       <c r="C14">
         <v>0.9998216133855915</v>
       </c>
       <c r="D14">
-        <v>0.00015241275334436992</v>
+        <v>1.5241275334436992E-4</v>
       </c>
       <c r="E14">
-        <v>7.3272337925441828e-06</v>
+        <v>7.3272337925441828E-6</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0025958153784256871</v>
+        <v>2.5958153784256871E-3</v>
       </c>
       <c r="C15">
-        <v>0.0085546103282209702</v>
+        <v>8.5546103282209702E-3</v>
       </c>
       <c r="D15">
         <v>0.98863422891619557</v>
       </c>
       <c r="E15">
-        <v>0.00021534537715769449</v>
+        <v>2.1534537715769449E-4</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.492815535909359e-06</v>
+        <v>4.492815535909359E-6</v>
       </c>
       <c r="C16">
-        <v>0.044848812440376987</v>
+        <v>4.4848812440376987E-2</v>
       </c>
       <c r="D16">
         <v>0.95040030068212111</v>
       </c>
       <c r="E16">
-        <v>0.004746394061966093</v>
+        <v>4.746394061966093E-3</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.4700414929293031e-06</v>
+        <v>3.4700414929293031E-6</v>
       </c>
       <c r="C17">
-        <v>0.050471037711752743</v>
+        <v>5.0471037711752743E-2</v>
       </c>
       <c r="D17">
         <v>0.94031025956586345</v>
       </c>
       <c r="E17">
-        <v>0.0092152326808908683</v>
+        <v>9.2152326808908683E-3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.5680736392891928e-05</v>
+        <v>9.5680736392891928E-5</v>
       </c>
       <c r="C18">
-        <v>0.038582484730645489</v>
+        <v>3.8582484730645489E-2</v>
       </c>
       <c r="D18">
         <v>0.95604404534493237</v>
       </c>
       <c r="E18">
-        <v>0.0052777891880292794</v>
+        <v>5.2777891880292794E-3</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.6014459826109842e-06</v>
+        <v>4.6014459826109842E-6</v>
       </c>
       <c r="C19">
-        <v>0.065806252297099105</v>
+        <v>6.5806252297099105E-2</v>
       </c>
       <c r="D19">
         <v>0.930856942877618</v>
       </c>
       <c r="E19">
-        <v>0.0033322033793002767</v>
+        <v>3.3322033793002767E-3</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.5662065317046784e-06</v>
+        <v>3.5662065317046784E-6</v>
       </c>
       <c r="C20">
         <v>0.23363126412707297</v>
@@ -564,12 +903,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.7506569905019294e-06</v>
+        <v>1.7506569905019294E-6</v>
       </c>
       <c r="C21">
         <v>0.11340476428117378</v>
@@ -578,13 +917,13 @@
         <v>0.8838329963254562</v>
       </c>
       <c r="E21">
-        <v>0.0027604887363795226</v>
+        <v>2.7604887363795226E-3</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -598,135 +937,149 @@
         <v>0.13440472817700802</v>
       </c>
       <c r="E22">
-        <v>4.4568655068950999e-05</v>
+        <v>4.4568655068950999E-5</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.9845255889241514e-06</v>
+        <v>1.9845255889241514E-6</v>
       </c>
       <c r="C23">
-        <v>0.066497464556346766</v>
+        <v>6.6497464556346766E-2</v>
       </c>
       <c r="D23">
         <v>0.92997939244471006</v>
       </c>
       <c r="E23">
-        <v>0.003521158473354311</v>
+        <v>3.521158473354311E-3</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.00028110688923459892</v>
+        <v>2.8110688923459892E-4</v>
       </c>
       <c r="C24">
-        <v>0.056043810059269297</v>
+        <v>5.6043810059269297E-2</v>
       </c>
       <c r="D24">
         <v>0.9433863371749649</v>
       </c>
       <c r="E24">
-        <v>0.00028874587653122681</v>
+        <v>2.8874587653122681E-4</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="18.42578125" customWidth="true"/>
-    <col min="3" max="3" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" width="18.140625" customWidth="true"/>
-    <col min="5" max="5" width="20.42578125" customWidth="true"/>
-    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.6295249521203151e-06</v>
+        <v>8.6295249521203151E-6</v>
       </c>
       <c r="C2">
-        <v>0.091906106279223632</v>
+        <v>9.1906106279223632E-2</v>
       </c>
       <c r="D2">
         <v>0.90765657508783315</v>
       </c>
       <c r="E2">
-        <v>0.00042868910799107089</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+        <v>4.2868910799107089E-4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.6639031659520965e-07</v>
+        <v>2.6639031659520965E-7</v>
       </c>
       <c r="C3">
-        <v>0.0003550623115717459</v>
+        <v>3.550623115717459E-4</v>
       </c>
       <c r="D3">
         <v>0.9994960426583932</v>
       </c>
       <c r="E3">
-        <v>0.0001486286397186429</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+        <v>1.486286397186429E-4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.730975130810583e-05</v>
+        <v>9.730975130810583E-5</v>
       </c>
       <c r="C4">
         <v>0.3406389555383641</v>
@@ -735,118 +1088,136 @@
         <v>0.65916479089204116</v>
       </c>
       <c r="E4">
-        <v>9.8943818286614091e-05</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+        <v>9.8943818286614091E-5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00065451090237983738</v>
+        <v>6.5451090237983738E-4</v>
       </c>
       <c r="C5">
-        <v>6.3735103800363323e-05</v>
+        <v>6.3735103800363323E-5</v>
       </c>
       <c r="D5">
         <v>0.99340535282758347</v>
       </c>
       <c r="E5">
-        <v>0.0058764011662362364</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+        <v>5.8764011662362364E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.5342660569615157e-05</v>
+        <v>2.5342660569615157E-5</v>
       </c>
       <c r="C6">
-        <v>0.006234095134430755</v>
+        <v>6.234095134430755E-3</v>
       </c>
       <c r="D6">
         <v>0.99344635291423267</v>
       </c>
       <c r="E6">
-        <v>0.00029420929076699753</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+        <v>2.9420929076699753E-4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.5108890699530085e-05</v>
+        <v>4.5108890699530085E-5</v>
       </c>
       <c r="C7">
-        <v>0.013075781934826782</v>
+        <v>1.3075781934826782E-2</v>
       </c>
       <c r="D7">
         <v>0.98601698767843704</v>
       </c>
       <c r="E7">
-        <v>0.00086212149603681133</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+        <v>8.6212149603681133E-4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.1788029795230495e-05</v>
+        <v>1.1788029795230495E-5</v>
       </c>
       <c r="C8">
-        <v>0.00052969144641638096</v>
+        <v>5.2969144641638096E-4</v>
       </c>
       <c r="D8">
         <v>0.98207972985951741</v>
       </c>
       <c r="E8">
-        <v>0.017378790664270942</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+        <v>1.7378790664270942E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.0139599479479133e-05</v>
+        <v>7.0139599479479133E-5</v>
       </c>
       <c r="C9">
-        <v>0.0010724972753371961</v>
+        <v>1.0724972753371961E-3</v>
       </c>
       <c r="D9">
         <v>0.99847733689582707</v>
       </c>
       <c r="E9">
-        <v>0.000380026229356325</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+        <v>3.80026229356325E-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0025965737998305824</v>
+        <v>2.5965737998305824E-3</v>
       </c>
       <c r="C10">
         <v>0.72442590007463636</v>
@@ -855,201 +1226,231 @@
         <v>0.23317990742007061</v>
       </c>
       <c r="E10">
-        <v>0.039797618705462452</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+        <v>3.9797618705462452E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.4844008246695313e-05</v>
+        <v>1.4844008246695313E-5</v>
       </c>
       <c r="C11">
         <v>0.99525216099580638</v>
       </c>
       <c r="D11">
-        <v>0.0038462708980337513</v>
+        <v>3.8462708980337513E-3</v>
       </c>
       <c r="E11">
-        <v>0.00088672409791313146</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+        <v>8.8672409791313146E-4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.001181637419137379</v>
+        <v>1.181637419137379E-3</v>
       </c>
       <c r="C12">
-        <v>0.031925189126290568</v>
+        <v>3.1925189126290568E-2</v>
       </c>
       <c r="D12">
         <v>0.93609945935712946</v>
       </c>
       <c r="E12">
-        <v>0.030793714097442568</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+        <v>3.0793714097442568E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.00042675085293817765</v>
+        <v>4.2675085293817765E-4</v>
       </c>
       <c r="C13">
-        <v>9.5567807275366104e-05</v>
+        <v>9.5567807275366104E-5</v>
       </c>
       <c r="D13">
         <v>0.99445022375704184</v>
       </c>
       <c r="E13">
-        <v>0.0050274575827446979</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+        <v>5.0274575827446979E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.8583586145740741e-05</v>
+        <v>1.8583586145740741E-5</v>
       </c>
       <c r="C14">
         <v>0.99265335269492039</v>
       </c>
       <c r="D14">
-        <v>6.0177123862094523e-08</v>
+        <v>6.0177123862094523E-8</v>
       </c>
       <c r="E14">
-        <v>0.0073280035418100235</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+        <v>7.3280035418100235E-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.00011356716539734584</v>
+        <v>1.1356716539734584E-4</v>
       </c>
       <c r="C15">
-        <v>0.00014331980649077213</v>
+        <v>1.4331980649077213E-4</v>
       </c>
       <c r="D15">
         <v>0.99969795793123495</v>
       </c>
       <c r="E15">
-        <v>4.5155096876994847e-05</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+        <v>4.5155096876994847E-5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.391357685265773e-06</v>
+        <v>1.391357685265773E-6</v>
       </c>
       <c r="C16">
-        <v>0.0007513437020666905</v>
+        <v>7.513437020666905E-4</v>
       </c>
       <c r="D16">
         <v>0.99912872157175625</v>
       </c>
       <c r="E16">
-        <v>0.00011854336849176727</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+        <v>1.1854336849176727E-4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.1555010200393261e-06</v>
+        <v>1.1555010200393261E-6</v>
       </c>
       <c r="C17">
-        <v>0.001640562244401026</v>
+        <v>1.640562244401026E-3</v>
       </c>
       <c r="D17">
         <v>0.99745527165951198</v>
       </c>
       <c r="E17">
-        <v>0.00090301059506696704</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+        <v>9.0301059506696704E-4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.3737726653668315e-05</v>
+        <v>2.3737726653668315E-5</v>
       </c>
       <c r="C18">
-        <v>0.013350056901922555</v>
+        <v>1.3350056901922555E-2</v>
       </c>
       <c r="D18">
         <v>0.98547399688795256</v>
       </c>
       <c r="E18">
-        <v>0.0011522084834711284</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+        <v>1.1522084834711284E-3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.0260968056189009e-06</v>
+        <v>1.0260968056189009E-6</v>
       </c>
       <c r="C19">
-        <v>0.002401226082664183</v>
+        <v>2.401226082664183E-3</v>
       </c>
       <c r="D19">
         <v>0.99728763950615251</v>
       </c>
       <c r="E19">
-        <v>0.00031010831437767761</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+        <v>3.1010831437767761E-4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.992098199251872e-06</v>
+        <v>4.992098199251872E-6</v>
       </c>
       <c r="C20">
-        <v>0.01147341412826813</v>
+        <v>1.147341412826813E-2</v>
       </c>
       <c r="D20">
         <v>0.26592765522040607</v>
@@ -1057,90 +1458,106 @@
       <c r="E20">
         <v>0.72259393855312659</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.1054382839220047e-07</v>
+        <v>7.1054382839220047E-7</v>
       </c>
       <c r="C21">
-        <v>0.0082452510193213799</v>
+        <v>8.2452510193213799E-3</v>
       </c>
       <c r="D21">
         <v>0.99146983457552518</v>
       </c>
       <c r="E21">
-        <v>0.00028420386132499285</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+        <v>2.8420386132499285E-4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0019416502063221526</v>
+        <v>1.9416502063221526E-3</v>
       </c>
       <c r="C22">
         <v>0.98958144789871305</v>
       </c>
       <c r="D22">
-        <v>0.0084768999737938194</v>
+        <v>8.4768999737938194E-3</v>
       </c>
       <c r="E22">
-        <v>1.9211710149100887e-09</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+        <v>1.9211710149100887E-9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.2860480320360581e-07</v>
+        <v>8.2860480320360581E-7</v>
       </c>
       <c r="C23">
-        <v>0.0021184002850728589</v>
+        <v>2.1184002850728589E-3</v>
       </c>
       <c r="D23">
         <v>0.99756719049978482</v>
       </c>
       <c r="E23">
-        <v>0.00031358061033907988</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+        <v>3.1358061033907988E-4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7.6438052694487122e-06</v>
+        <v>7.6438052694487122E-6</v>
       </c>
       <c r="C24">
-        <v>0.0050357165171283965</v>
+        <v>5.0357165171283965E-3</v>
       </c>
       <c r="D24">
         <v>0.99378694617494145</v>
       </c>
       <c r="E24">
-        <v>0.0011696935026608091</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
+        <v>1.1696935026608091E-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>